--- a/public/templates/test-template.xlsx
+++ b/public/templates/test-template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22920"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A50FB2AE-A9E1-4594-AC6C-7A7231EA207B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E99AD16-F5A0-43B5-A786-DF3879D3CD53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,110 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learner Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC / Assessor </t>
+  </si>
+  <si>
+    <t>Date Quality checked</t>
+  </si>
+  <si>
+    <t>Review No</t>
+  </si>
+  <si>
+    <t>Date of Review</t>
+  </si>
+  <si>
+    <t>Competency Progress &amp; Percentage - 6%</t>
+  </si>
+  <si>
+    <t>Knowledge Progress &amp; Percentage - 6%</t>
+  </si>
+  <si>
+    <t>Essential Skills Progress - 6%</t>
+  </si>
+  <si>
+    <t>WEST progress - 6%</t>
+  </si>
+  <si>
+    <t>Basic Skills progress recorded - 6%</t>
+  </si>
+  <si>
+    <t>Competency Targets - 6%</t>
+  </si>
+  <si>
+    <t>Knowledge Targets - 6%</t>
+  </si>
+  <si>
+    <t>Essential Skills Targets - 6%</t>
+  </si>
+  <si>
+    <t>WEST Targets - 6%</t>
+  </si>
+  <si>
+    <t>Personal Effectiveness Profile Completed - 6%</t>
+  </si>
+  <si>
+    <t>Feelsafe ticked- 6%</t>
+  </si>
+  <si>
+    <t>H&amp;S Sufficient? - 6%</t>
+  </si>
+  <si>
+    <t>E&amp;D/Safeguarding Sufficient? - 6%</t>
+  </si>
+  <si>
+    <t>Welsh Language sufficient? 6%</t>
+  </si>
+  <si>
+    <t>Learner Comments and date - 6%</t>
+  </si>
+  <si>
+    <t>Employer comments and date - 6%</t>
+  </si>
+  <si>
+    <t>TC/Assessors Comments and date - 6%</t>
+  </si>
+  <si>
+    <t>cavca</t>
+  </si>
+  <si>
+    <t>Total %</t>
+  </si>
+  <si>
+    <t>Stretch and challenge evidenced</t>
+  </si>
+  <si>
+    <t>Data Issues</t>
+  </si>
+  <si>
+    <t>Data to be informed of missed areas.</t>
+  </si>
+  <si>
+    <t>Correction date</t>
+  </si>
+  <si>
+    <t>Date Sharon Informed</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Quality Officer</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +135,38 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -51,17 +174,119 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" textRotation="60" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -371,12 +596,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34" ht="159">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="8">
+        <f>COUNTIF(G2:W2, "Yes")</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="9">
+        <f>COUNTIF(G2:W2, "No")</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="9">
+        <f>COUNTIF(G2:W2,"n/a")</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="10" t="str">
+        <f>IFERROR(SUM(X2/(X2+Y2)),"")</f>
+        <v/>
+      </c>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="4"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="AA2">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="3" operator="containsText" id="{F0AE9431-12A4-41C5-BDB1-38390482ADA8}">
+            <xm:f>NOT(ISERROR(SEARCH("Yes",G2)))</xm:f>
+            <xm:f>"Yes"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2:W2</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="2" operator="containsText" id="{B87581A9-28B5-4BF5-8782-F246008354C4}">
+            <xm:f>NOT(ISERROR(SEARCH("No",G2)))</xm:f>
+            <xm:f>"No"</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>G2:W2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>